--- a/CashFlow/TTD_cashflow.xlsx
+++ b/CashFlow/TTD_cashflow.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>481313000.0</v>
+        <v>3587000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>260892000.0</v>
+        <v>3108000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1902000.0</v>
+        <v>2191134000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>8508000.0</v>
+        <v>1533311000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>209986000.0</v>
+        <v>865822000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>6322000.0</v>
